--- a/tables/B18107_2011.xlsx
+++ b/tables/B18107_2011.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\DOHMH\Programming\BESP\ACS_data_tool_for_EPHT\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75D4A35-2A20-428B-90F8-696C11F1E220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F354EC-1100-49E0-81F5-27555EEE5295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -606,7 +600,6 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -931,9 +924,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1007,7 +998,7 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1040,7 +1031,7 @@
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1073,7 +1064,7 @@
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1106,7 +1097,7 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="1">
         <v>13</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -1150,7 +1141,7 @@
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="1">
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -1183,7 +1174,7 @@
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="1">
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -1216,7 +1207,7 @@
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="1">
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1249,7 +1240,7 @@
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="1">
         <v>26</v>
       </c>
       <c r="C29" s="7" t="s">
